--- a/Test Data/data.xlsx
+++ b/Test Data/data.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Title" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Browser</t>
   </si>
@@ -33,6 +34,9 @@
     <t>IE</t>
   </si>
   <si>
+    <t>http://hierarchymanager-test1.test.intranet/ccshms/HMlogin.jsp</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -42,16 +46,67 @@
     <t>ab63599</t>
   </si>
   <si>
-    <t>http://citscl-test1.test.intranet/its/ITSlogin.jsp</t>
+    <t>SalesId</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>empId</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>cuid</t>
   </si>
   <si>
-    <t>ab63499</t>
-  </si>
-  <si>
-    <t>ab635888</t>
+    <t>salescode</t>
+  </si>
+  <si>
+    <t>altscode</t>
+  </si>
+  <si>
+    <t>sapid</t>
+  </si>
+  <si>
+    <t>123ab</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>centuryLink</t>
+  </si>
+  <si>
+    <t>1234a</t>
+  </si>
+  <si>
+    <t>B6QP</t>
+  </si>
+  <si>
+    <t>CBG5</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>B4RQ</t>
+  </si>
+  <si>
+    <t>Shivbaba1@</t>
   </si>
 </sst>
 </file>
@@ -396,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -428,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +491,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -460,51 +523,140 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>950128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>1234</v>
+      </c>
+      <c r="I2">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
